--- a/2022/上机/CS00600307上机记录.xlsx
+++ b/2022/上机/CS00600307上机记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repository\C-Program\2022\上机\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4615FF3-CF21-4541-B996-F5787662C193}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B5BA24-6382-4DD3-8A89-25F28B0BEA16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第1-4次" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="69">
   <si>
     <t>学号</t>
   </si>
@@ -236,6 +236,13 @@
   </si>
   <si>
     <t>王泽朝</t>
+  </si>
+  <si>
+    <t>2022.11.3 19:00检查第1,2次练习</t>
+  </si>
+  <si>
+    <t>2022.11.9 21:00检查第3,4次练习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -331,7 +338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -341,16 +348,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -669,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE282B9-2B8E-4EC9-90D5-A29D8CB99414}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
@@ -685,74 +695,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="22.65" customHeight="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
@@ -764,31 +774,33 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="22.65" customHeight="1">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2"/>
@@ -800,13 +812,13 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="2"/>
@@ -818,13 +830,13 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="2"/>
@@ -836,67 +848,77 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="22.65" customHeight="1">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>680</v>
+      </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="22.65" customHeight="1">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="F12" s="2">
+        <v>540</v>
+      </c>
+      <c r="G12" s="2">
+        <v>680</v>
+      </c>
+      <c r="H12" s="2">
+        <v>635</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="22.65" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="2"/>
@@ -908,13 +930,13 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="2"/>
@@ -926,13 +948,13 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="2"/>
@@ -944,13 +966,13 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="2"/>
@@ -962,67 +984,77 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2"/>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>600</v>
+      </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="22.65" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>325</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="22.65" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>680</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="22.65" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="2"/>
@@ -1034,17 +1066,19 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2">
+        <v>580</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
@@ -1052,13 +1086,13 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="2"/>
@@ -1070,13 +1104,13 @@
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="2"/>
@@ -1088,31 +1122,35 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="2">
+        <v>480</v>
+      </c>
+      <c r="G24" s="2">
+        <v>280</v>
+      </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="22.65" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="2"/>
@@ -1124,67 +1162,79 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="2">
+        <v>380</v>
+      </c>
+      <c r="H26" s="2">
+        <v>480</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="22.65" customHeight="1">
       <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="22.65" customHeight="1">
       <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="F28" s="2">
+        <v>300</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="22.65" customHeight="1">
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="2"/>
@@ -1196,19 +1246,45 @@
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="2">
+        <v>500</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="E31">
+        <v>700</v>
+      </c>
+      <c r="F31">
+        <v>600</v>
+      </c>
+      <c r="G31">
+        <v>700</v>
+      </c>
+      <c r="H31">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="45.6" customHeight="1">
+      <c r="B32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1232,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D35C9E-F1F4-4907-9699-CFA9BABB4ABD}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D30"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
@@ -1246,74 +1322,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="22.65" customHeight="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
@@ -1325,13 +1401,13 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="2"/>
@@ -1343,13 +1419,13 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2"/>
@@ -1361,13 +1437,13 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="2"/>
@@ -1379,13 +1455,13 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="2"/>
@@ -1397,13 +1473,13 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="2"/>
@@ -1415,13 +1491,13 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="2"/>
@@ -1433,13 +1509,13 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="2"/>
@@ -1451,13 +1527,13 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="2"/>
@@ -1469,13 +1545,13 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="2"/>
@@ -1487,13 +1563,13 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="2"/>
@@ -1505,13 +1581,13 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="2"/>
@@ -1523,13 +1599,13 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="2"/>
@@ -1541,13 +1617,13 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="2"/>
@@ -1559,13 +1635,13 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="2"/>
@@ -1577,13 +1653,13 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="2"/>
@@ -1595,13 +1671,13 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="2"/>
@@ -1613,13 +1689,13 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="2"/>
@@ -1631,13 +1707,13 @@
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="2"/>
@@ -1649,13 +1725,13 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="2"/>
@@ -1667,13 +1743,13 @@
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="2"/>
@@ -1685,13 +1761,13 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="2"/>
@@ -1703,13 +1779,13 @@
       <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="2"/>
@@ -1721,13 +1797,13 @@
       <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="2"/>
@@ -1739,13 +1815,13 @@
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="2"/>
@@ -1757,13 +1833,13 @@
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="2"/>

--- a/2022/上机/CS00600307上机记录.xlsx
+++ b/2022/上机/CS00600307上机记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repository\C-Program\2022\上机\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B5BA24-6382-4DD3-8A89-25F28B0BEA16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BC89E2-057F-4750-9BC9-7DE16B803DBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第1-4次" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="71">
   <si>
     <t>学号</t>
   </si>
@@ -242,6 +242,14 @@
   </si>
   <si>
     <t>2022.11.9 21:00检查第3,4次练习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加题统计2022.12.31 18:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -338,7 +346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -357,10 +365,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -681,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE282B9-2B8E-4EC9-90D5-A29D8CB99414}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -695,62 +709,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="22.65" customHeight="1">
       <c r="A5" s="1">
@@ -1306,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D35C9E-F1F4-4907-9699-CFA9BABB4ABD}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
@@ -1318,68 +1332,72 @@
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" customWidth="1"/>
     <col min="5" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I3" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="22.65" customHeight="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1396,8 +1414,11 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I5" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="22.65" customHeight="1">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1414,8 +1435,9 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="22.65" customHeight="1">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1432,8 +1454,11 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I7" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="22.65" customHeight="1">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1450,8 +1475,9 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="22.65" customHeight="1">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1468,8 +1494,11 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I9" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="22.65" customHeight="1">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1486,8 +1515,11 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I10" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="22.65" customHeight="1">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1504,8 +1536,9 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="22.65" customHeight="1">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1522,8 +1555,9 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="22.65" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1540,8 +1574,11 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I13" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="22.65" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1558,8 +1595,11 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I14" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="22.65" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1576,8 +1616,11 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I15" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="22.65" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1594,8 +1637,11 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I16" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="22.65" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1612,8 +1658,9 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="22.65" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1630,8 +1677,11 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I18" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="22.65" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1648,8 +1698,11 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I19" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="22.65" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1666,8 +1719,9 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="22.65" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1684,8 +1738,11 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I21" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="22.65" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1702,8 +1759,11 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I22" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="22.65" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1720,8 +1780,9 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="22.65" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1738,8 +1799,11 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I24" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="22.65" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1756,8 +1820,9 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" ht="22.65" customHeight="1">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1774,8 +1839,9 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" ht="22.65" customHeight="1">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1792,8 +1858,11 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I27" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="22.65" customHeight="1">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1810,8 +1879,9 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="22.65" customHeight="1">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1828,8 +1898,9 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" ht="22.65" customHeight="1">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -1846,9 +1917,18 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
+      <c r="I30" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="32.4">
+      <c r="B32" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>

--- a/2022/上机/CS00600307上机记录.xlsx
+++ b/2022/上机/CS00600307上机记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repository\C-Program\2022\上机\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BC89E2-057F-4750-9BC9-7DE16B803DBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B76A3C-2CC9-4798-8171-DB739C253D3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="72">
   <si>
     <t>学号</t>
   </si>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>附加题统计2022.12.31 18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5次满分600,第6,7,8次满分700，23.1.4.11:30统计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -368,13 +372,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -709,62 +713,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="22.65" customHeight="1">
       <c r="A5" s="1">
@@ -1320,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D35C9E-F1F4-4907-9699-CFA9BABB4ABD}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
@@ -1336,66 +1340,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="22.65" customHeight="1">
       <c r="A5" s="1">
@@ -1654,10 +1658,18 @@
       <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="E17" s="2">
+        <v>400</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="22.65" customHeight="1">
@@ -1776,10 +1788,18 @@
       <c r="D23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="E23" s="2">
+        <v>500</v>
+      </c>
+      <c r="F23" s="2">
+        <v>500</v>
+      </c>
+      <c r="G23" s="2">
+        <v>600</v>
+      </c>
+      <c r="H23" s="2">
+        <v>400</v>
+      </c>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" ht="22.65" customHeight="1">
@@ -1877,8 +1897,12 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="2">
+        <v>600</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="22.65" customHeight="1">
@@ -1916,14 +1940,21 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <v>500</v>
+      </c>
       <c r="I30" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="32.4">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/2022/上机/CS00600307上机记录.xlsx
+++ b/2022/上机/CS00600307上机记录.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repository\C-Program\2022\上机\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B76A3C-2CC9-4798-8171-DB739C253D3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC1D08E-D62A-4194-8F1D-D6217E16ECB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第1-4次" sheetId="2" r:id="rId1"/>
     <sheet name="第5-8次" sheetId="5" r:id="rId2"/>
+    <sheet name="平时成绩计算" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'第1-4次'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'第5-8次'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">平时成绩计算!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="76">
   <si>
     <t>学号</t>
   </si>
@@ -254,6 +256,22 @@
   </si>
   <si>
     <t>第5次满分600,第6,7,8次满分700，23.1.4.11:30统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平时成绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加题'X'表示未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平时成绩评判：每未完成一项减10分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -373,6 +391,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -699,7 +720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE282B9-2B8E-4EC9-90D5-A29D8CB99414}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -713,62 +734,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="22.65" customHeight="1">
       <c r="A5" s="1">
@@ -1326,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D35C9E-F1F4-4907-9699-CFA9BABB4ABD}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
@@ -1340,66 +1361,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="22.65" customHeight="1">
       <c r="A5" s="1">
@@ -1974,4 +1995,951 @@
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.27559055118110237" bottom="0.27559055118110237" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AD19C6-3DD7-41DB-BDE8-BFFB8573729C}">
+  <dimension ref="A1:N36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8">
+        <v>60</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
+        <v>200</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8">
+        <v>100</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8">
+        <v>60</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8">
+        <v>60</v>
+      </c>
+      <c r="N10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
+        <v>680</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8">
+        <v>540</v>
+      </c>
+      <c r="G12" s="8">
+        <v>680</v>
+      </c>
+      <c r="H12" s="8">
+        <v>635</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8">
+        <v>100</v>
+      </c>
+      <c r="N13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8">
+        <v>100</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8">
+        <v>600</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>400</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8">
+        <v>325</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8">
+        <v>680</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8">
+        <v>100</v>
+      </c>
+      <c r="N19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8">
+        <v>580</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8">
+        <v>100</v>
+      </c>
+      <c r="N21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8">
+        <v>100</v>
+      </c>
+      <c r="N22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8">
+        <v>500</v>
+      </c>
+      <c r="J23" s="8">
+        <v>500</v>
+      </c>
+      <c r="K23" s="8">
+        <v>600</v>
+      </c>
+      <c r="L23" s="8">
+        <v>400</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8">
+        <v>480</v>
+      </c>
+      <c r="G24" s="8">
+        <v>280</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8">
+        <v>60</v>
+      </c>
+      <c r="N24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8">
+        <v>380</v>
+      </c>
+      <c r="H26" s="8">
+        <v>480</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8">
+        <v>100</v>
+      </c>
+      <c r="N27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8">
+        <v>300</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8">
+        <v>600</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="22.65" customHeight="1">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8">
+        <v>500</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8">
+        <v>500</v>
+      </c>
+      <c r="M30" s="8">
+        <v>100</v>
+      </c>
+      <c r="N30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="E31">
+        <v>700</v>
+      </c>
+      <c r="F31">
+        <v>600</v>
+      </c>
+      <c r="G31">
+        <v>700</v>
+      </c>
+      <c r="H31">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="45.6" customHeight="1">
+      <c r="B32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.27559055118110237" bottom="0.27559055118110237" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>